--- a/Cat Defense Design.xlsx
+++ b/Cat Defense Design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>시스템 결정 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,18 @@
   10.4.1 Perfect 판정으로 3.2.2.1을 성공했을 경우 정가의 130%를 받는다.
   10.4.2 Good 판정으로 3.2.2.1을 성공했을 경우 정가를 받는다.
   10.4.3 Bad 판정으로 3.2.2.1을 성공했을 경우 정가의 70%를 받는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 기획
+11.1 날카로운 칼 - 고기 자르는 바가 천천히 움직입니다.
+11.2 숙련된 조리사 - Perfect 판정 범위가 넓어집니다.
+11.3 정확한 조준 - 던지는 바가 천천히 움직입니다.
+11.4 역세권 - 고양이들이 천천히 다가옵니다.
+11.5 1등급 고기 - Perfect 판정 시 돈을 좀 더 줍니다.
+11.6 조미료 - Bad 판정 시 돈을 좀 더 줍니다.
+11.7 외국산 - 고기 구매 비용이 싸집니다.
+11.8 묵직한 고기 - 고양이들이 밀려나는 거리가 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,13 +169,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,11 +507,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,139 +521,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -659,7 +678,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B9:F9"/>

--- a/Cat Defense Design.xlsx
+++ b/Cat Defense Design.xlsx
@@ -507,11 +507,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Cat Defense Design.xlsx
+++ b/Cat Defense Design.xlsx
@@ -106,12 +106,10 @@
     <t>업그레이드 기획
 11.1 날카로운 칼 - 고기 자르는 바가 천천히 움직입니다.
 11.2 숙련된 조리사 - Perfect 판정 범위가 넓어집니다.
-11.3 정확한 조준 - 던지는 바가 천천히 움직입니다.
-11.4 역세권 - 고양이들이 천천히 다가옵니다.
-11.5 1등급 고기 - Perfect 판정 시 돈을 좀 더 줍니다.
-11.6 조미료 - Bad 판정 시 돈을 좀 더 줍니다.
-11.7 외국산 - 고기 구매 비용이 싸집니다.
-11.8 묵직한 고기 - 고양이들이 밀려나는 거리가 증가합니다.</t>
+11.3 역세권 - 고양이들이 천천히 다가옵니다.
+11.4 1등급 고기 - Perfect 판정 시 돈을 좀 더 줍니다.
+11.5 조미료 - Bad 판정 시 돈을 좀 더 줍니다.
+11.6 외국산 - 고기 구매 비용이 싸집니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,10 +506,10 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -650,7 +648,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>

--- a/Cat Defense Design.xlsx
+++ b/Cat Defense Design.xlsx
@@ -35,20 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>판정
-3.1 안맞음
-  아무일이 없다.
-3.2 맞음
-  3.2.1 잘못된 고기를 던졌을 경우
-      고양이가 화나서 더 빠르게 다가옴
-  3.2.2 올바른 고기를 던졌을 경우
-      3.2.2.1 알맞은 양을 던졌을 경우
-            돈을 지불하고 사라짐
-      3.2.2.2 잘못된 양을 던졌을 경우
-            약간 뒤로 밀림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고양이가 정육점에 도착하면 웨이브 오버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +96,20 @@
 11.4 1등급 고기 - Perfect 판정 시 돈을 좀 더 줍니다.
 11.5 조미료 - Bad 판정 시 돈을 좀 더 줍니다.
 11.6 외국산 - 고기 구매 비용이 싸집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판정
+3.1 안맞음
+  아무 일 없음
+3.2 맞음
+  3.2.1 잘못된 고기를 던졌을 경우
+      고양이가 화나서 더 빠르게 다가옴 or 아무 일 없음
+  3.2.2 올바른 고기를 던졌을 경우
+      3.2.2.1 알맞은 양을 던졌을 경우
+            돈을 지불하고 사라짐
+      3.2.2.2 잘못된 양을 던졌을 경우
+            약간 뒤로 밀림 or 아무 일 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +506,10 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -557,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -569,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -581,7 +581,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -605,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -629,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -641,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -653,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
